--- a/outputs/faculty_timetables/Dr__Animesh_Roy.xlsx
+++ b/outputs/faculty_timetables/Dr__Animesh_Roy.xlsx
@@ -751,20 +751,20 @@
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" s="2" t="inlineStr">
-        <is>
-          <t>CS161 | Problem Solving through Programming | Dr. Animesh Roy | C203</t>
-        </is>
-      </c>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AF3" s="2" t="inlineStr">
+        <is>
+          <t>CS161 | Problem Solving through Programming | Dr. Animesh Roy | C102</t>
+        </is>
+      </c>
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
     </row>
@@ -932,8 +932,8 @@
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="N3:U3"/>
     <mergeCell ref="N6:R6"/>
-    <mergeCell ref="W3:AB3"/>
     <mergeCell ref="G5:N5"/>
+    <mergeCell ref="AF3:AK3"/>
     <mergeCell ref="S6:V6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
